--- a/app/Licenciatura_em_Jornalismo.xlsx
+++ b/app/Licenciatura_em_Jornalismo.xlsx
@@ -15,35 +15,32 @@
     <sheet name="20153260" sheetId="5" r:id="rId8"/>
     <sheet name="20153255" sheetId="6" r:id="rId9"/>
     <sheet name="20153249" sheetId="7" r:id="rId10"/>
-    <sheet name="20154470" sheetId="8" r:id="rId11"/>
-    <sheet name="20153251" sheetId="9" r:id="rId12"/>
-    <sheet name="20153274" sheetId="10" r:id="rId13"/>
-    <sheet name="20153266" sheetId="11" r:id="rId14"/>
-    <sheet name="20153276" sheetId="12" r:id="rId15"/>
-    <sheet name="20153252" sheetId="13" r:id="rId16"/>
-    <sheet name="20153254" sheetId="14" r:id="rId17"/>
-    <sheet name="20153265" sheetId="15" r:id="rId18"/>
-    <sheet name="20153253" sheetId="16" r:id="rId19"/>
-    <sheet name="20153268" sheetId="17" r:id="rId20"/>
-    <sheet name="20153270" sheetId="18" r:id="rId21"/>
-    <sheet name="20153261" sheetId="19" r:id="rId22"/>
-    <sheet name="20153269" sheetId="20" r:id="rId23"/>
-    <sheet name="20153267" sheetId="21" r:id="rId24"/>
-    <sheet name="20153263" sheetId="22" r:id="rId25"/>
-    <sheet name="20153248" sheetId="23" r:id="rId26"/>
-    <sheet name="20153257" sheetId="24" r:id="rId27"/>
-    <sheet name="20153258" sheetId="25" r:id="rId28"/>
-    <sheet name="20154787" sheetId="26" r:id="rId29"/>
-    <sheet name="20154471" sheetId="27" r:id="rId30"/>
-    <sheet name="20153250" sheetId="28" r:id="rId31"/>
-    <sheet name="20153256" sheetId="29" r:id="rId32"/>
-    <sheet name="20153264" sheetId="30" r:id="rId33"/>
-    <sheet name="20153273" sheetId="31" r:id="rId34"/>
-    <sheet name="20153275" sheetId="32" r:id="rId35"/>
-    <sheet name="20153272" sheetId="33" r:id="rId36"/>
-    <sheet name="20153271" sheetId="34" r:id="rId37"/>
-    <sheet name="Sheet2" sheetId="35" r:id="rId38"/>
-    <sheet name="Sheet3" sheetId="36" r:id="rId39"/>
+    <sheet name="20153251" sheetId="8" r:id="rId11"/>
+    <sheet name="20153274" sheetId="9" r:id="rId12"/>
+    <sheet name="20153266" sheetId="10" r:id="rId13"/>
+    <sheet name="20153276" sheetId="11" r:id="rId14"/>
+    <sheet name="20153252" sheetId="12" r:id="rId15"/>
+    <sheet name="20153254" sheetId="13" r:id="rId16"/>
+    <sheet name="20153265" sheetId="14" r:id="rId17"/>
+    <sheet name="20153253" sheetId="15" r:id="rId18"/>
+    <sheet name="20153268" sheetId="16" r:id="rId19"/>
+    <sheet name="20153270" sheetId="17" r:id="rId20"/>
+    <sheet name="20153261" sheetId="18" r:id="rId21"/>
+    <sheet name="20153269" sheetId="19" r:id="rId22"/>
+    <sheet name="20153267" sheetId="20" r:id="rId23"/>
+    <sheet name="20153263" sheetId="21" r:id="rId24"/>
+    <sheet name="20153248" sheetId="22" r:id="rId25"/>
+    <sheet name="20153257" sheetId="23" r:id="rId26"/>
+    <sheet name="20153258" sheetId="24" r:id="rId27"/>
+    <sheet name="20153250" sheetId="25" r:id="rId28"/>
+    <sheet name="20153256" sheetId="26" r:id="rId29"/>
+    <sheet name="20153264" sheetId="27" r:id="rId30"/>
+    <sheet name="20153273" sheetId="28" r:id="rId31"/>
+    <sheet name="20153275" sheetId="29" r:id="rId32"/>
+    <sheet name="20153272" sheetId="30" r:id="rId33"/>
+    <sheet name="20153271" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -200,9 +197,6 @@
     <t>Florinda Lopes Mucauque</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -239,9 +233,6 @@
     <t>Samina Cossa</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -335,12 +326,6 @@
     <t>Escola Secundaria da Lhanguene</t>
   </si>
   <si>
-    <t>Ngovene</t>
-  </si>
-  <si>
-    <t>Carla Faife</t>
-  </si>
-  <si>
     <t>Mussane</t>
   </si>
   <si>
@@ -377,9 +362,6 @@
     <t>Albertina Paulino Malo</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>110302270027C</t>
   </si>
   <si>
@@ -425,9 +407,6 @@
     <t>Maria De Fatima I. Mangue</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110100142478P</t>
   </si>
   <si>
@@ -452,9 +431,6 @@
     <t>Felismina Ernesto</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -476,9 +452,6 @@
     <t>Lucia Fabiao Bila</t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>100401395374M</t>
   </si>
   <si>
@@ -500,9 +473,6 @@
     <t>Maria Julio Mutemba</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110500406186C</t>
   </si>
   <si>
@@ -524,9 +494,6 @@
     <t>Antonia Castro Silvestre</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040101799863B</t>
   </si>
   <si>
@@ -551,9 +518,6 @@
     <t>MÁrcia AmÉlia ManhiÇa</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110104943471J</t>
   </si>
   <si>
@@ -617,9 +581,6 @@
     <t>Felizmina Alfredo Esperto</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>+258845761422</t>
   </si>
   <si>
@@ -686,9 +647,6 @@
     <t>Filomena M. Massitela</t>
   </si>
   <si>
-    <t>Cidade de Lichinga</t>
-  </si>
-  <si>
     <t>010104341790P</t>
   </si>
   <si>
@@ -713,9 +671,6 @@
     <t>Rosalina Faz-ver</t>
   </si>
   <si>
-    <t>Distrito de Maringue</t>
-  </si>
-  <si>
     <t>110101941940S</t>
   </si>
   <si>
@@ -746,18 +701,6 @@
     <t>+258847003646</t>
   </si>
   <si>
-    <t>Cossa</t>
-  </si>
-  <si>
-    <t>Sheila Arminda</t>
-  </si>
-  <si>
-    <t>Chitoquisso</t>
-  </si>
-  <si>
-    <t>Edna da Graça Sérgio</t>
-  </si>
-  <si>
     <t>Chichume</t>
   </si>
   <si>
@@ -771,9 +714,6 @@
   </si>
   <si>
     <t>Jonalda Faduco Chichume</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
   </si>
   <si>
     <t>110100133965F</t>
@@ -2141,7 +2081,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153274</v>
+        <v>20153266</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2165,7 +2105,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2181,7 +2121,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2197,7 +2137,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2213,7 +2153,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2229,7 +2169,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2244,9 +2184,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2254,7 +2192,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2265,7 +2203,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2274,7 +2212,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2286,7 +2224,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2294,7 +2232,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2390,7 +2328,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2417,7 +2355,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2433,7 +2371,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2736,7 +2674,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153266</v>
+        <v>20153276</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2760,7 +2698,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2776,7 +2714,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2792,7 +2730,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2808,7 +2746,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2824,7 +2762,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2839,9 +2777,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2849,7 +2785,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2860,7 +2796,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2869,7 +2805,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2881,7 +2817,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2889,7 +2825,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2985,7 +2921,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3012,7 +2948,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3028,7 +2964,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3331,7 +3267,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153276</v>
+        <v>20153252</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3355,7 +3291,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3371,7 +3307,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3387,7 +3323,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3403,7 +3339,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3419,7 +3355,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3434,9 +3370,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3444,7 +3378,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3455,7 +3389,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3464,7 +3398,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3476,15 +3410,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>125</v>
+      <c r="H17" s="20">
+        <v>379114</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3580,7 +3514,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3607,7 +3541,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3623,7 +3557,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3926,7 +3860,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153252</v>
+        <v>20153254</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3950,7 +3884,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3966,7 +3900,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3982,7 +3916,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3998,7 +3932,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4014,7 +3948,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4029,9 +3963,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>133</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4039,7 +3971,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4050,7 +3982,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4059,7 +3991,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4071,15 +4003,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>379114</v>
+      <c r="H17" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4218,7 +4150,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4521,7 +4453,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153254</v>
+        <v>20153265</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4624,9 +4556,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4634,7 +4564,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4645,7 +4575,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4654,7 +4584,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4666,7 +4596,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4674,7 +4604,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4770,7 +4700,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4813,7 +4743,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5116,7 +5046,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153265</v>
+        <v>20153253</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5140,7 +5070,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5156,7 +5086,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5172,7 +5102,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5188,7 +5118,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5204,7 +5134,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5219,9 +5149,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>149</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5229,7 +5157,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5240,7 +5168,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5249,7 +5177,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5261,7 +5189,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5269,7 +5197,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5365,7 +5293,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5392,7 +5320,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5408,7 +5336,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5711,7 +5639,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153253</v>
+        <v>20153268</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5735,7 +5663,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5751,7 +5679,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5767,7 +5695,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5783,7 +5711,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5799,7 +5727,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5814,9 +5742,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>157</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5824,7 +5750,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5835,7 +5761,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5844,7 +5770,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5856,7 +5782,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5864,7 +5790,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5960,7 +5886,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5987,7 +5913,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6003,7 +5929,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6306,7 +6232,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153268</v>
+        <v>20153270</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6330,7 +6256,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6346,7 +6272,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6362,7 +6288,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6378,7 +6304,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6394,7 +6320,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6409,9 +6335,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>166</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6419,7 +6343,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6430,7 +6354,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6439,7 +6363,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6451,7 +6375,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6459,7 +6383,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6555,7 +6479,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6598,7 +6522,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6901,7 +6825,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153270</v>
+        <v>20153261</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6925,7 +6849,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6941,7 +6865,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6957,7 +6881,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6973,7 +6897,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6989,7 +6913,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7004,9 +6928,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>157</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7014,7 +6936,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7025,7 +6947,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7034,7 +6956,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7046,7 +6968,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7054,7 +6976,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7150,7 +7072,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7193,7 +7115,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7496,7 +7418,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153261</v>
+        <v>20153269</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7520,7 +7442,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7536,7 +7458,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7552,7 +7474,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7568,7 +7490,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7584,7 +7506,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7599,9 +7521,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>149</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7609,7 +7529,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7620,7 +7540,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7629,7 +7549,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7641,15 +7561,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>181</v>
+      <c r="H17" s="20">
+        <v>31816508</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7745,7 +7665,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7788,7 +7708,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8194,9 +8114,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8204,7 +8122,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8215,7 +8133,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8224,7 +8142,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8236,7 +8154,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8244,7 +8162,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8340,7 +8258,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8383,7 +8301,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8686,7 +8604,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153269</v>
+        <v>20153267</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8710,7 +8628,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8726,7 +8644,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8742,7 +8660,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8758,7 +8676,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8774,7 +8692,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8789,9 +8707,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>188</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8799,7 +8715,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8810,7 +8726,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8819,7 +8735,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8831,15 +8747,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>31816508</v>
+      <c r="H17" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8935,7 +8851,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8962,7 +8878,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8978,7 +8894,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9281,7 +9197,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153267</v>
+        <v>20153263</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9305,7 +9221,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9321,7 +9237,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9337,7 +9253,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9353,7 +9269,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9369,7 +9285,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9384,9 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>133</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9394,7 +9308,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9405,7 +9319,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9414,7 +9328,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9426,7 +9340,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9434,7 +9348,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9530,7 +9444,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9557,7 +9471,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9573,7 +9487,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9876,7 +9790,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153263</v>
+        <v>20153248</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9900,7 +9814,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9916,7 +9830,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9932,7 +9846,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9948,7 +9862,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9964,7 +9878,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9979,9 +9893,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9989,7 +9901,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10000,7 +9912,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10009,7 +9921,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10021,7 +9933,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10029,7 +9941,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10125,7 +10037,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10152,7 +10064,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10168,7 +10080,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10471,7 +10383,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153248</v>
+        <v>20153257</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10495,7 +10407,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10511,7 +10423,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10527,7 +10439,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10543,7 +10455,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10559,7 +10471,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10574,9 +10486,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>211</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10584,7 +10494,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10595,7 +10505,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10604,7 +10514,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10616,7 +10526,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10624,7 +10534,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10720,7 +10630,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10747,7 +10657,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10763,7 +10673,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11066,7 +10976,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153257</v>
+        <v>20153258</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11090,7 +11000,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11106,7 +11016,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11122,7 +11032,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11138,7 +11048,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11154,7 +11064,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11169,9 +11079,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>220</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11179,7 +11087,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11190,7 +11098,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11199,7 +11107,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11211,7 +11119,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11219,7 +11127,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11315,7 +11223,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11342,7 +11250,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11358,7 +11266,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11661,7 +11569,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153258</v>
+        <v>20153250</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11685,7 +11593,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11701,7 +11609,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11717,7 +11625,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11733,7 +11641,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11749,7 +11657,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11764,9 +11672,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>149</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11774,7 +11680,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11785,7 +11691,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11794,7 +11700,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11806,7 +11712,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11814,7 +11720,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11910,7 +11816,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11953,7 +11859,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12204,7 +12110,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -12254,7 +12162,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154787</v>
+        <v>20153256</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12278,7 +12186,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12294,7 +12202,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12309,7 +12217,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>226</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -12323,7 +12233,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>227</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -12337,7 +12249,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>227</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -12358,7 +12272,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -12367,14 +12283,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -12384,13 +12304,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>228</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -12485,7 +12409,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12511,7 +12435,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -12525,7 +12451,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -12775,7 +12703,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -12825,7 +12755,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154471</v>
+        <v>20153264</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12849,7 +12779,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12865,7 +12795,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12880,7 +12810,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>232</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -12894,7 +12826,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -12908,7 +12842,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>234</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -12929,7 +12865,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -12938,14 +12876,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -12955,13 +12897,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>235</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -13056,7 +13002,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13082,7 +13028,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -13096,7 +13044,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -13398,7 +13348,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153250</v>
+        <v>20153273</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13422,7 +13372,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13438,7 +13388,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13454,7 +13404,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13470,7 +13420,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13486,7 +13436,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13501,9 +13451,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>240</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13511,7 +13459,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13522,7 +13470,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13531,7 +13479,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13543,7 +13491,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13551,7 +13499,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13647,7 +13595,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13674,7 +13622,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13690,7 +13638,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>244</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13993,7 +13941,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153256</v>
+        <v>20153275</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14017,7 +13965,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14033,7 +13981,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14049,7 +13997,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14065,7 +14013,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14081,7 +14029,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14096,9 +14044,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14106,7 +14052,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14117,7 +14063,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14126,7 +14072,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14138,7 +14084,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14146,7 +14092,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14242,7 +14188,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14269,7 +14215,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14285,7 +14231,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14612,7 +14558,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14628,7 +14574,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14644,7 +14590,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14660,7 +14606,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14676,7 +14622,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14691,9 +14637,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14701,7 +14645,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14712,7 +14656,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14721,7 +14665,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14733,7 +14677,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14741,7 +14685,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14837,7 +14781,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14880,7 +14824,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15183,7 +15127,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153264</v>
+        <v>20153272</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15207,7 +15151,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15223,7 +15167,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15239,7 +15183,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15255,7 +15199,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15271,7 +15215,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15286,9 +15230,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>149</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15296,7 +15238,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15307,7 +15249,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15316,7 +15258,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15328,15 +15270,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>254</v>
+      <c r="H17" s="20">
+        <v>13088163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15432,7 +15374,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15459,7 +15401,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15475,7 +15417,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15778,7 +15720,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153273</v>
+        <v>20153271</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15802,7 +15744,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15818,7 +15760,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15834,7 +15776,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>258</v>
+        <v>46</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15850,7 +15792,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15866,7 +15808,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15881,9 +15823,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15891,7 +15831,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15902,7 +15842,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15911,7 +15851,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15923,7 +15863,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15931,7 +15871,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16027,7 +15967,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16054,7 +15994,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16070,7 +16010,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16273,1791 +16213,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153275</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153272</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>13088163</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2009</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153271</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -18081,7 +16236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18238,7 +16393,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18254,7 +16409,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18445,7 +16600,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18811,7 +16966,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18827,7 +16982,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18843,7 +16998,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18859,7 +17014,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18875,7 +17030,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18890,9 +17045,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18900,7 +17053,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18911,7 +17064,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18920,7 +17073,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18932,7 +17085,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18940,7 +17093,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19036,7 +17189,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19079,7 +17232,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19406,7 +17559,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19422,7 +17575,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19438,7 +17591,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19454,7 +17607,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19470,7 +17623,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19485,9 +17638,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19495,7 +17646,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19506,7 +17657,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19515,7 +17666,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19527,7 +17678,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19535,7 +17686,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19631,7 +17782,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19674,7 +17825,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20001,7 +18152,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20017,7 +18168,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20033,7 +18184,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20049,7 +18200,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20065,7 +18216,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20080,9 +18231,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20090,7 +18239,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20101,7 +18250,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20110,7 +18259,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20122,7 +18271,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20130,7 +18279,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20226,7 +18375,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20269,7 +18418,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20520,7 +18669,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -20570,7 +18721,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154470</v>
+        <v>20153251</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20594,7 +18745,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20610,7 +18761,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20625,7 +18776,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -20639,7 +18792,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -20653,7 +18808,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -20674,7 +18831,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -20683,14 +18842,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -20700,13 +18863,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -20801,7 +18968,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20827,7 +18994,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -20841,7 +19010,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -21143,7 +19314,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153251</v>
+        <v>20153274</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21167,7 +19338,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21183,7 +19354,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21199,7 +19370,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21215,7 +19386,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21231,7 +19402,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21246,9 +19417,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21256,7 +19425,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21267,7 +19436,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21276,7 +19445,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21288,7 +19457,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21296,7 +19465,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21392,7 +19561,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21419,7 +19588,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21435,7 +19604,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
